--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehmetgul/IdeaProjects/MySeleniumLibrary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC7575-17AB-4449-BF88-D7C76D0A389E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B16046B-5014-9146-8944-015A2BAC40D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>rrr</t>
   </si>
   <si>
-    <t>ttt</t>
-  </si>
-  <si>
     <t>yyy</t>
   </si>
   <si>
@@ -106,6 +103,18 @@
   </si>
   <si>
     <t>mmm</t>
+  </si>
+  <si>
+    <t>Add Profile</t>
+  </si>
+  <si>
+    <t>SDET1</t>
+  </si>
+  <si>
+    <t>Serkan3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -468,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -482,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -496,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -510,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -524,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -538,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -552,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -566,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -580,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -594,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -608,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -622,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -636,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -644,27 +653,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -672,13 +681,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -686,13 +695,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
